--- a/biology/Médecine/Institut_supérieur_d'ingénieurs_de_Franche-Comté/Institut_supérieur_d'ingénieurs_de_Franche-Comté.xlsx
+++ b/biology/Médecine/Institut_supérieur_d'ingénieurs_de_Franche-Comté/Institut_supérieur_d'ingénieurs_de_Franche-Comté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_sup%C3%A9rieur_d%27ing%C3%A9nieurs_de_Franche-Comt%C3%A9</t>
+          <t>Institut_supérieur_d'ingénieurs_de_Franche-Comté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut supérieur d'ingénieurs de Franche-Comté est l'une des 204 écoles d'ingénieurs françaises accréditées au 1er septembre 2020 à délivrer un diplôme d'ingénieur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut supérieur d'ingénieurs de Franche-Comté est l'une des 204 écoles d'ingénieurs françaises accréditées au 1er septembre 2020 à délivrer un diplôme d'ingénieur.
 Située à Besançon, c'est une composante de l'université de Franche-Comté spécialisée dans le dispositif médical.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_sup%C3%A9rieur_d%27ing%C3%A9nieurs_de_Franche-Comt%C3%A9</t>
+          <t>Institut_supérieur_d'ingénieurs_de_Franche-Comté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Conditions d'admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école est accessible sur concours après une classe préparatoire (Concours Polytech) ou sur dossier après un bac +2 minimum en sciences de l'ingénieur, informatique, biologie, électronique, mécanique...
 La formation s'effectue en trois ans après l'entrée à l'ISIFC. Le titre d'ingénieur ISIFC confère aussi le grade de Master.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_sup%C3%A9rieur_d%27ing%C3%A9nieurs_de_Franche-Comt%C3%A9</t>
+          <t>Institut_supérieur_d'ingénieurs_de_Franche-Comté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Enseignement et scolarité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enseignement dispensé à l'ISIFC[2] est pluridisciplinaire pour permettre au futur ingénieur de comprendre tous les aspects d'un dispositif médical (DM) en partenariat étroit avec le CHRU de Besançon et l'industrie du DM.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enseignement dispensé à l'ISIFC est pluridisciplinaire pour permettre au futur ingénieur de comprendre tous les aspects d'un dispositif médical (DM) en partenariat étroit avec le CHRU de Besançon et l'industrie du DM.
 La première année reste essentiellement théorique avec l'enseignement de matières "de base" : mécanique, mathématique, biologie, physiologie, anatomie, électronique, etc.
 Lors de la seconde année, le programme comporte en plus une spécialisation en affaires réglementaires/ qualité et en recherche clinique. Plusieurs modules optionnels sont proposés: traitement d'images avancé, électronique numérique ou automatique. Il est également possible de prendre part à l'entreprise universitaire interne à l'école, véritable cellule de pré incubation de projets innovants pour la santé : Biotika.
 La troisième année se compose essentiellement de stages, d'un tronc commun en investigations cliniques, en entrepreneuriat et innovation, et une option parmi : la e-santé, la bio-ingénierie, ou la biomécanique et microsystèmes pour le médical.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_sup%C3%A9rieur_d%27ing%C3%A9nieurs_de_Franche-Comt%C3%A9</t>
+          <t>Institut_supérieur_d'ingénieurs_de_Franche-Comté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Stages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les stages prennent une part importante dans l'enseignement dispensés à l'ISIFC.
 En première année :
